--- a/biology/Zoologie/Dubreuillosaurus/Dubreuillosaurus.xlsx
+++ b/biology/Zoologie/Dubreuillosaurus/Dubreuillosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dubreuillosaurus valesdunensis
-Dubreuillosaurus est un genre éteint de dinosaures carnivores, un théropode de la famille des mégalosauridés, qui vivait au Jurassique moyen durant le Bathonien. Ces fossiles ont été retrouvés en France, dans le département du Calvados en Normandie. Ils proviennent de la formation du calcaire de Caen datée de la base du Bathonien moyen[2], soit il y a environ 167 Ma (millions d'années).
-L'espèce type et seule espèce connue, Dubreuillosaurus valesdunensis, a été décrite par Ronan Allain d'abord sous le nom de Poekilopleuron ? valesdunensis en 2002[2], puis attribué par ce même auteur à son propre genre Dubreuillosaurus en 2005[1].
+Dubreuillosaurus est un genre éteint de dinosaures carnivores, un théropode de la famille des mégalosauridés, qui vivait au Jurassique moyen durant le Bathonien. Ces fossiles ont été retrouvés en France, dans le département du Calvados en Normandie. Ils proviennent de la formation du calcaire de Caen datée de la base du Bathonien moyen, soit il y a environ 167 Ma (millions d'années).
+L'espèce type et seule espèce connue, Dubreuillosaurus valesdunensis, a été décrite par Ronan Allain d'abord sous le nom de Poekilopleuron ? valesdunensis en 2002, puis attribué par ce même auteur à son propre genre Dubreuillosaurus en 2005.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1994 André Dubreuil découvre lors de plantation dans son champ des dents fossilisées. Les fouilles suivantes permettront de découvrir des ossements (côtes, membres et un crâne juvénile). En 1998 les découvertes seront amenées au Muséum national d’histoires naturelles à Paris pour y être examiné par le paléontologue Ronan Allain. 
-L'espèce étant nouvelle le Dubreuillosaurus Valesdunensis hérite du nom de son découvreur André Dubreuil et de Valle-es-Dunes le lieu-dit sur la commune de Conteville, au Sud de Caen où il a été découvert[3].
+L'espèce étant nouvelle le Dubreuillosaurus Valesdunensis hérite du nom de son découvreur André Dubreuil et de Valle-es-Dunes le lieu-dit sur la commune de Conteville, au Sud de Caen où il a été découvert.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Exposition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis le printemps 2014 ce spécimen rarissime et normand est prêté par son découvreur André Dubreuil au Paléospace l'Odyssée de Villers-sur-Mer où il est présenté dans la salle "Dinosaures de Normandie"[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis le printemps 2014 ce spécimen rarissime et normand est prêté par son découvreur André Dubreuil au Paléospace l'Odyssée de Villers-sur-Mer où il est présenté dans la salle "Dinosaures de Normandie",.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dubreuillosaurus signifie « reptile de Dubreuil ».
 </t>
@@ -608,6 +626,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -633,9 +653,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce dinosaure a été décrit en 2005 par le paléontologue Ronan Allain. Il correspond à la redéfinition de l'espèce Poekilopleuron valesdunensis[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce dinosaure a été décrit en 2005 par le paléontologue Ronan Allain. Il correspond à la redéfinition de l'espèce Poekilopleuron valesdunensis.
 </t>
         </is>
       </c>
@@ -664,10 +686,12 @@
           <t>Phylogenèse</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poekilopleuron? / Dubreuillosaurus valesdunensis ont été placés par leur inventeur en 2002 puis en 2005, dans la famille des Megalosauridae[2].
-En 2012, M. T. Carrano et ses collègues précisent sa position en le plaçant dans la sous-famille des Afrovenatorinae en groupe frère du genre Magnosaurus[6], comme le montre leur cladogramme ci-dessous :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poekilopleuron? / Dubreuillosaurus valesdunensis ont été placés par leur inventeur en 2002 puis en 2005, dans la famille des Megalosauridae.
+En 2012, M. T. Carrano et ses collègues précisent sa position en le plaçant dans la sous-famille des Afrovenatorinae en groupe frère du genre Magnosaurus, comme le montre leur cladogramme ci-dessous :
 </t>
         </is>
       </c>
